--- a/ApolloQA/Data/RatingManual/GA/VA00053.LimitFactors.xlsx
+++ b/ApolloQA/Data/RatingManual/GA/VA00053.LimitFactors.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="VA00053.LimitFactors" sheetId="1" r:id="R908e398da88c47a9"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="VA00053.LimitFactors" sheetId="1" r:id="R93b445bacf8b40bb"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -23,7 +23,7 @@
         <x:v>$500</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>0.4500</x:v>
+        <x:v>0.4250</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -31,7 +31,7 @@
         <x:v>$1,000</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>0.6000</x:v>
+        <x:v>0.4445</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -39,7 +39,7 @@
         <x:v>$2,000</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>0.7000</x:v>
+        <x:v>0.7222</x:v>
       </x:c>
     </x:row>
     <x:row>
